--- a/output/moodle/moodle-flaw-fiaf.xlsx
+++ b/output/moodle/moodle-flaw-fiaf.xlsx
@@ -706,7 +706,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>javascript:S2201</t>
+          <t>B-javascript:S2201</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -878,7 +878,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>javascript:S2259</t>
+          <t>B-javascript:S2259</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1050,7 +1050,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>javascript:S2583</t>
+          <t>B-javascript:S2583</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1222,7 +1222,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>php:S836</t>
+          <t>B-php:S836</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1394,7 +1394,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>javascript:S3403</t>
+          <t>B-javascript:S3403</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1566,7 +1566,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>php:S2201</t>
+          <t>B-php:S2201</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1738,7 +1738,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>php:S1848</t>
+          <t>B-php:S1848</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1910,7 +1910,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>php:S1656</t>
+          <t>B-php:S1656</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2082,7 +2082,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>php:S3923</t>
+          <t>B-php:S3923</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2254,7 +2254,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>php:S2964</t>
+          <t>V-php:S2964</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2426,7 +2426,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Web:BoldAndItalicTagsCheck</t>
+          <t>B-Web:BoldAndItalicTagsCheck</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2598,7 +2598,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>javascript:S2757</t>
+          <t>B-javascript:S2757</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2770,7 +2770,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>javascript:S2819</t>
+          <t>V-javascript:S2819</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2942,7 +2942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>php:S1763</t>
+          <t>B-php:S1763</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3114,7 +3114,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>javascript:S2873</t>
+          <t>B-javascript:S2873</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3286,7 +3286,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>javascript:S1143</t>
+          <t>B-javascript:S1143</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3458,7 +3458,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>javascript:UnreachableCode</t>
+          <t>B-javascript:UnreachableCode</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3630,7 +3630,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>php:S2053</t>
+          <t>V-php:S2053</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3802,7 +3802,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>php:S2068</t>
+          <t>V-php:S2068</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3974,7 +3974,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>javascript:S3981</t>
+          <t>B-javascript:S3981</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4146,7 +4146,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>javascript:S3785</t>
+          <t>B-javascript:S3785</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4318,7 +4318,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>php:S1764</t>
+          <t>B-php:S1764</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4490,7 +4490,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>php:S1862</t>
+          <t>B-php:S1862</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4662,7 +4662,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>javascript:S2137</t>
+          <t>B-javascript:S2137</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4834,7 +4834,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>javascript:DuplicatePropertyName</t>
+          <t>B-javascript:DuplicatePropertyName</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5006,7 +5006,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Web:DoctypePresenceCheck</t>
+          <t>B-Web:DoctypePresenceCheck</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5178,7 +5178,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Web:FieldsetWithoutLegendCheck</t>
+          <t>B-Web:FieldsetWithoutLegendCheck</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5350,7 +5350,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>php:S4433</t>
+          <t>V-php:S4433</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5522,7 +5522,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>php:S2757</t>
+          <t>B-php:S2757</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5694,7 +5694,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Web:PageWithoutTitleCheck</t>
+          <t>B-Web:PageWithoutTitleCheck</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5866,7 +5866,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>javascript:S1656</t>
+          <t>B-javascript:S1656</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -6038,7 +6038,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>php:S4830</t>
+          <t>V-php:S4830</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -6210,7 +6210,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Web:ImgWithoutAltCheck</t>
+          <t>B-Web:ImgWithoutAltCheck</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -6382,7 +6382,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>javascript:S905</t>
+          <t>B-javascript:S905</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6554,7 +6554,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>javascript:S3812</t>
+          <t>B-javascript:S3812</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6726,7 +6726,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>javascript:S4043</t>
+          <t>B-javascript:S4043</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6898,7 +6898,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>php:S1145</t>
+          <t>B-php:S1145</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -7070,7 +7070,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>php:S905</t>
+          <t>B-php:S905</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -7242,7 +7242,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Web:UnsupportedTagsInHtml5Check</t>
+          <t>B-Web:UnsupportedTagsInHtml5Check</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -7414,7 +7414,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Web:FrameWithoutTitleCheck</t>
+          <t>B-Web:FrameWithoutTitleCheck</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -7586,7 +7586,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>php:S4423</t>
+          <t>V-php:S4423</t>
         </is>
       </c>
       <c r="B42" t="n">
